--- a/импорт-покупки.xlsx
+++ b/импорт-покупки.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">Плащане</t>
   </si>
   <si>
-    <t xml:space="preserve">Продавач</t>
+    <t xml:space="preserve">Купувач</t>
   </si>
   <si>
     <t xml:space="preserve">Падеж</t>
@@ -55,13 +55,13 @@
     <t xml:space="preserve">Цена</t>
   </si>
   <si>
-    <t xml:space="preserve">Покупка</t>
+    <t xml:space="preserve">Продажба</t>
   </si>
   <si>
     <t xml:space="preserve">По банков път</t>
   </si>
   <si>
-    <t xml:space="preserve">АПТЕКИ ООД</t>
+    <t xml:space="preserve">АТА-СПА ООД</t>
   </si>
   <si>
     <t xml:space="preserve">Балсам за блясък, 200 мл</t>
@@ -85,7 +85,7 @@
     <t xml:space="preserve">L20250517</t>
   </si>
   <si>
-    <t xml:space="preserve">Тея Органикс ЕООД</t>
+    <t xml:space="preserve">ДЖИ ЕМ ЕКС ЕООД</t>
   </si>
   <si>
     <t xml:space="preserve">Шампоан Keratin Shampoo 150ml</t>
@@ -106,7 +106,7 @@
     <t xml:space="preserve">L20250903</t>
   </si>
   <si>
-    <t xml:space="preserve">МТ Фарма ЕООД</t>
+    <t xml:space="preserve">РЕД ОРИНДЖ ООД</t>
   </si>
   <si>
     <t xml:space="preserve">Дезодорант Fresh, 150 мл</t>
@@ -224,17 +224,17 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -313,7 +313,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -322,7 +322,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -330,15 +334,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -594,24 +598,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="30.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="6.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -621,7 +626,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
@@ -630,7 +635,7 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="0" t="s">
@@ -654,7 +659,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>10060</v>
+        <v>9000000009</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>45672</v>
@@ -688,8 +693,8 @@
       <c r="A3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>10060</v>
+      <c r="B3" s="3" t="n">
+        <v>9000000009</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>45672</v>
@@ -723,8 +728,8 @@
       <c r="A4" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="n">
-        <v>10060</v>
+      <c r="B4" s="3" t="n">
+        <v>9000000009</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>45672</v>
@@ -758,8 +763,8 @@
       <c r="A5" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="n">
-        <v>1000000258</v>
+      <c r="B5" s="3" t="n">
+        <v>9000000013</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>45712</v>
@@ -793,8 +798,8 @@
       <c r="A6" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="n">
-        <v>1000000258</v>
+      <c r="B6" s="3" t="n">
+        <v>9000000013</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>45712</v>
@@ -828,8 +833,8 @@
       <c r="A7" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1" t="n">
-        <v>1000000258</v>
+      <c r="B7" s="3" t="n">
+        <v>9000000013</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>45712</v>
@@ -843,7 +848,7 @@
       <c r="F7" s="2" t="n">
         <v>45716</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>26</v>
       </c>
       <c r="H7" s="0" t="s">
@@ -864,7 +869,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>2025000002</v>
+        <v>2000080595</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>45748</v>
@@ -878,7 +883,7 @@
       <c r="F8" s="2" t="n">
         <v>45775</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H8" s="0" t="s">
@@ -898,8 +903,8 @@
       <c r="A9" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1" t="n">
-        <v>2025000002</v>
+      <c r="B9" s="3" t="n">
+        <v>2000080595</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>45748</v>
@@ -913,7 +918,7 @@
       <c r="F9" s="2" t="n">
         <v>45775</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="5" t="s">
         <v>31</v>
       </c>
       <c r="H9" s="0" t="s">
@@ -933,8 +938,8 @@
       <c r="A10" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1" t="n">
-        <v>2025000002</v>
+      <c r="B10" s="3" t="n">
+        <v>2000080595</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>45748</v>
@@ -948,7 +953,7 @@
       <c r="F10" s="2" t="n">
         <v>45775</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="5" t="s">
         <v>33</v>
       </c>
       <c r="H10" s="0" t="s">
@@ -968,8 +973,8 @@
       <c r="A11" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1" t="n">
-        <v>2025000002</v>
+      <c r="B11" s="3" t="n">
+        <v>2000080595</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>45748</v>
@@ -983,7 +988,7 @@
       <c r="F11" s="2" t="n">
         <v>45775</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="6" t="s">
         <v>35</v>
       </c>
       <c r="H11" s="0" t="s">
@@ -1003,8 +1008,8 @@
       <c r="A12" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="n">
-        <v>2025000002</v>
+      <c r="B12" s="3" t="n">
+        <v>2000080595</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>45748</v>
@@ -1018,7 +1023,7 @@
       <c r="F12" s="2" t="n">
         <v>45775</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="5" t="s">
         <v>37</v>
       </c>
       <c r="H12" s="0" t="s">
@@ -1038,8 +1043,8 @@
       <c r="A13" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="n">
-        <v>2025000002</v>
+      <c r="B13" s="3" t="n">
+        <v>2000080595</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>45748</v>
@@ -1053,7 +1058,7 @@
       <c r="F13" s="2" t="n">
         <v>45775</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="7" t="s">
         <v>39</v>
       </c>
       <c r="H13" s="0" t="s">
@@ -1073,8 +1078,8 @@
       <c r="A14" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="1" t="n">
-        <v>2025000002</v>
+      <c r="B14" s="3" t="n">
+        <v>2000080595</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>45748</v>
@@ -1109,7 +1114,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>2000000554</v>
+        <v>9000000050</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>45765</v>
@@ -1117,7 +1122,7 @@
       <c r="D15" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F15" s="2" t="n">
@@ -1144,7 +1149,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>2000000554</v>
+        <v>9000000050</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>45765</v>
@@ -1152,7 +1157,7 @@
       <c r="D16" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F16" s="2" t="n">
@@ -1178,8 +1183,8 @@
       <c r="A17" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="1" t="n">
-        <v>2000000554</v>
+      <c r="B17" s="3" t="n">
+        <v>9000000050</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>45765</v>
@@ -1187,7 +1192,7 @@
       <c r="D17" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F17" s="2" t="n">
@@ -1213,8 +1218,8 @@
       <c r="A18" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="1" t="n">
-        <v>2000000554</v>
+      <c r="B18" s="3" t="n">
+        <v>9000000050</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>45765</v>
@@ -1222,7 +1227,7 @@
       <c r="D18" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F18" s="2" t="n">
@@ -1248,8 +1253,8 @@
       <c r="A19" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="1" t="n">
-        <v>2000000554</v>
+      <c r="B19" s="3" t="n">
+        <v>9000000050</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>45765</v>
@@ -1257,7 +1262,7 @@
       <c r="D19" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F19" s="2" t="n">
@@ -1283,8 +1288,8 @@
       <c r="A20" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="1" t="n">
-        <v>2000000554</v>
+      <c r="B20" s="3" t="n">
+        <v>9000000050</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>45765</v>
@@ -1292,7 +1297,7 @@
       <c r="D20" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F20" s="2" t="n">
@@ -1313,6 +1318,9 @@
       <c r="K20" s="0" t="n">
         <v>1.25</v>
       </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/импорт-покупки.xlsx
+++ b/импорт-покупки.xlsx
@@ -600,8 +600,8 @@
   </sheetPr>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -610,12 +610,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="30.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="6.68"/>
   </cols>
   <sheetData>
